--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Guca2a-Gucy2c.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Guca2a-Gucy2c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3976836666666667</v>
+        <v>0.5753393333333333</v>
       </c>
       <c r="H2">
-        <v>1.193051</v>
+        <v>1.726018</v>
       </c>
       <c r="I2">
-        <v>0.2004019289498867</v>
+        <v>0.272529860734904</v>
       </c>
       <c r="J2">
-        <v>0.2004019289498867</v>
+        <v>0.272529860734904</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2561116666666667</v>
+        <v>0.4040993333333333</v>
       </c>
       <c r="N2">
-        <v>0.768335</v>
+        <v>1.212298</v>
       </c>
       <c r="O2">
-        <v>0.1060077716175362</v>
+        <v>0.1080113302049822</v>
       </c>
       <c r="P2">
-        <v>0.1060077716175362</v>
+        <v>0.1080113302049822</v>
       </c>
       <c r="Q2">
-        <v>0.1018514266761111</v>
+        <v>0.2324942410404444</v>
       </c>
       <c r="R2">
-        <v>0.9166628400850001</v>
+        <v>2.092448169364</v>
       </c>
       <c r="S2">
-        <v>0.02124416191583331</v>
+        <v>0.02943631277855552</v>
       </c>
       <c r="T2">
-        <v>0.02124416191583331</v>
+        <v>0.02943631277855552</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3976836666666667</v>
+        <v>0.5753393333333333</v>
       </c>
       <c r="H3">
-        <v>1.193051</v>
+        <v>1.726018</v>
       </c>
       <c r="I3">
-        <v>0.2004019289498867</v>
+        <v>0.272529860734904</v>
       </c>
       <c r="J3">
-        <v>0.2004019289498867</v>
+        <v>0.272529860734904</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,33 +623,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.840209</v>
+        <v>3.337168666666667</v>
       </c>
       <c r="N3">
-        <v>5.520626999999999</v>
+        <v>10.011506</v>
       </c>
       <c r="O3">
-        <v>0.7616851584290758</v>
+        <v>0.8919886697950178</v>
       </c>
       <c r="P3">
-        <v>0.7616851584290758</v>
+        <v>0.8919886697950178</v>
       </c>
       <c r="Q3">
-        <v>0.7318210625529999</v>
+        <v>1.920004395900889</v>
       </c>
       <c r="R3">
-        <v>6.586389562977</v>
+        <v>17.280039563108</v>
       </c>
       <c r="S3">
-        <v>0.1526431750016869</v>
+        <v>0.2430935479563485</v>
       </c>
       <c r="T3">
-        <v>0.1526431750016869</v>
+        <v>0.2430935479563485</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3976836666666667</v>
+        <v>0.6810696666666667</v>
       </c>
       <c r="H4">
-        <v>1.193051</v>
+        <v>2.043209</v>
       </c>
       <c r="I4">
-        <v>0.2004019289498867</v>
+        <v>0.3226127793697994</v>
       </c>
       <c r="J4">
-        <v>0.2004019289498867</v>
+        <v>0.3226127793697994</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.31965</v>
+        <v>0.4040993333333333</v>
       </c>
       <c r="N4">
-        <v>0.9589500000000001</v>
+        <v>1.212298</v>
       </c>
       <c r="O4">
-        <v>0.132307069953388</v>
+        <v>0.1080113302049822</v>
       </c>
       <c r="P4">
-        <v>0.132307069953388</v>
+        <v>0.1080113302049822</v>
       </c>
       <c r="Q4">
-        <v>0.12711958405</v>
+        <v>0.2752197982535555</v>
       </c>
       <c r="R4">
-        <v>1.14407625645</v>
+        <v>2.476978184282</v>
       </c>
       <c r="S4">
-        <v>0.02651459203236655</v>
+        <v>0.03484583544085847</v>
       </c>
       <c r="T4">
-        <v>0.02651459203236655</v>
+        <v>0.03484583544085847</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,45 +735,45 @@
         <v>2.043209</v>
       </c>
       <c r="I5">
-        <v>0.3432066398232507</v>
+        <v>0.3226127793697994</v>
       </c>
       <c r="J5">
-        <v>0.3432066398232507</v>
+        <v>0.3226127793697994</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2561116666666667</v>
+        <v>3.337168666666667</v>
       </c>
       <c r="N5">
-        <v>0.768335</v>
+        <v>10.011506</v>
       </c>
       <c r="O5">
-        <v>0.1060077716175362</v>
+        <v>0.8919886697950178</v>
       </c>
       <c r="P5">
-        <v>0.1060077716175362</v>
+        <v>0.8919886697950178</v>
       </c>
       <c r="Q5">
-        <v>0.1744298874461111</v>
+        <v>2.272844351417111</v>
       </c>
       <c r="R5">
-        <v>1.569868987015</v>
+        <v>20.455599162754</v>
       </c>
       <c r="S5">
-        <v>0.03638257109200517</v>
+        <v>0.287766943928941</v>
       </c>
       <c r="T5">
-        <v>0.03638257109200517</v>
+        <v>0.287766943928941</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,25 +782,25 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.6810696666666667</v>
+        <v>0.1639403333333333</v>
       </c>
       <c r="H6">
-        <v>2.043209</v>
+        <v>0.491821</v>
       </c>
       <c r="I6">
-        <v>0.3432066398232507</v>
+        <v>0.07765614763953865</v>
       </c>
       <c r="J6">
-        <v>0.3432066398232507</v>
+        <v>0.07765614763953865</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.840209</v>
+        <v>0.4040993333333333</v>
       </c>
       <c r="N6">
-        <v>5.520626999999999</v>
+        <v>1.212298</v>
       </c>
       <c r="O6">
-        <v>0.7616851584290758</v>
+        <v>0.1080113302049822</v>
       </c>
       <c r="P6">
-        <v>0.7616851584290758</v>
+        <v>0.1080113302049822</v>
       </c>
       <c r="Q6">
-        <v>1.253310530227</v>
+        <v>0.06624817940644444</v>
       </c>
       <c r="R6">
-        <v>11.279794772043</v>
+        <v>0.596233614658</v>
       </c>
       <c r="S6">
-        <v>0.2614154038276835</v>
+        <v>0.008387743805141058</v>
       </c>
       <c r="T6">
-        <v>0.2614154038276835</v>
+        <v>0.008387743805141056</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.6810696666666667</v>
+        <v>0.1639403333333333</v>
       </c>
       <c r="H7">
-        <v>2.043209</v>
+        <v>0.491821</v>
       </c>
       <c r="I7">
-        <v>0.3432066398232507</v>
+        <v>0.07765614763953865</v>
       </c>
       <c r="J7">
-        <v>0.3432066398232507</v>
+        <v>0.07765614763953865</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.31965</v>
+        <v>3.337168666666667</v>
       </c>
       <c r="N7">
-        <v>0.9589500000000001</v>
+        <v>10.011506</v>
       </c>
       <c r="O7">
-        <v>0.132307069953388</v>
+        <v>0.8919886697950178</v>
       </c>
       <c r="P7">
-        <v>0.132307069953388</v>
+        <v>0.8919886697950178</v>
       </c>
       <c r="Q7">
-        <v>0.21770391895</v>
+        <v>0.547096543602889</v>
       </c>
       <c r="R7">
-        <v>1.95933527055</v>
+        <v>4.923868892426</v>
       </c>
       <c r="S7">
-        <v>0.04540866490356207</v>
+        <v>0.0692684038343976</v>
       </c>
       <c r="T7">
-        <v>0.04540866490356207</v>
+        <v>0.0692684038343976</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1639403333333333</v>
+        <v>0.185546</v>
       </c>
       <c r="H8">
-        <v>0.491821</v>
+        <v>0.556638</v>
       </c>
       <c r="I8">
-        <v>0.08261329741818432</v>
+        <v>0.08789043719112749</v>
       </c>
       <c r="J8">
-        <v>0.08261329741818432</v>
+        <v>0.08789043719112749</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2561116666666667</v>
+        <v>0.4040993333333333</v>
       </c>
       <c r="N8">
-        <v>0.768335</v>
+        <v>1.212298</v>
       </c>
       <c r="O8">
-        <v>0.1060077716175362</v>
+        <v>0.1080113302049822</v>
       </c>
       <c r="P8">
-        <v>0.1060077716175362</v>
+        <v>0.1080113302049822</v>
       </c>
       <c r="Q8">
-        <v>0.04198703200388889</v>
+        <v>0.07497901490266666</v>
       </c>
       <c r="R8">
-        <v>0.377883288035</v>
+        <v>0.6748111341239998</v>
       </c>
       <c r="S8">
-        <v>0.008757651565278477</v>
+        <v>0.009493163033311118</v>
       </c>
       <c r="T8">
-        <v>0.008757651565278477</v>
+        <v>0.009493163033311117</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,22 +971,22 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1639403333333333</v>
+        <v>0.185546</v>
       </c>
       <c r="H9">
-        <v>0.491821</v>
+        <v>0.556638</v>
       </c>
       <c r="I9">
-        <v>0.08261329741818432</v>
+        <v>0.08789043719112749</v>
       </c>
       <c r="J9">
-        <v>0.08261329741818432</v>
+        <v>0.08789043719112749</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.840209</v>
+        <v>3.337168666666667</v>
       </c>
       <c r="N9">
-        <v>5.520626999999999</v>
+        <v>10.011506</v>
       </c>
       <c r="O9">
-        <v>0.7616851584290758</v>
+        <v>0.8919886697950178</v>
       </c>
       <c r="P9">
-        <v>0.7616851584290758</v>
+        <v>0.8919886697950178</v>
       </c>
       <c r="Q9">
-        <v>0.3016844768629999</v>
+        <v>0.6191982974253334</v>
       </c>
       <c r="R9">
-        <v>2.715160291767</v>
+        <v>5.572784676828</v>
       </c>
       <c r="S9">
-        <v>0.06292532253231808</v>
+        <v>0.07839727415781637</v>
       </c>
       <c r="T9">
-        <v>0.06292532253231808</v>
+        <v>0.07839727415781637</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1039,51 +1039,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.1639403333333333</v>
+        <v>0.3993843333333333</v>
       </c>
       <c r="H10">
-        <v>0.491821</v>
+        <v>1.198153</v>
       </c>
       <c r="I10">
-        <v>0.08261329741818432</v>
+        <v>0.189182540523394</v>
       </c>
       <c r="J10">
-        <v>0.08261329741818432</v>
+        <v>0.189182540523394</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.31965</v>
+        <v>0.4040993333333333</v>
       </c>
       <c r="N10">
-        <v>0.9589500000000001</v>
+        <v>1.212298</v>
       </c>
       <c r="O10">
-        <v>0.132307069953388</v>
+        <v>0.1080113302049822</v>
       </c>
       <c r="P10">
-        <v>0.132307069953388</v>
+        <v>0.1080113302049822</v>
       </c>
       <c r="Q10">
-        <v>0.05240352755</v>
+        <v>0.1613909428437778</v>
       </c>
       <c r="R10">
-        <v>0.4716317479500001</v>
+        <v>1.452518485594</v>
       </c>
       <c r="S10">
-        <v>0.01093032332058776</v>
+        <v>0.02043385785348973</v>
       </c>
       <c r="T10">
-        <v>0.01093032332058776</v>
+        <v>0.02043385785348973</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.139827</v>
+        <v>0.3993843333333333</v>
       </c>
       <c r="H11">
-        <v>0.419481</v>
+        <v>1.198153</v>
       </c>
       <c r="I11">
-        <v>0.07046203520036229</v>
+        <v>0.189182540523394</v>
       </c>
       <c r="J11">
-        <v>0.07046203520036229</v>
+        <v>0.189182540523394</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2561116666666667</v>
+        <v>3.337168666666667</v>
       </c>
       <c r="N11">
-        <v>0.768335</v>
+        <v>10.011506</v>
       </c>
       <c r="O11">
-        <v>0.1060077716175362</v>
+        <v>0.8919886697950178</v>
       </c>
       <c r="P11">
-        <v>0.1060077716175362</v>
+        <v>0.8919886697950178</v>
       </c>
       <c r="Q11">
-        <v>0.03581132601500001</v>
+        <v>1.332812883157556</v>
       </c>
       <c r="R11">
-        <v>0.322301934135</v>
+        <v>11.995315948418</v>
       </c>
       <c r="S11">
-        <v>0.007469523335226803</v>
+        <v>0.1687486826699043</v>
       </c>
       <c r="T11">
-        <v>0.007469523335226803</v>
+        <v>0.1687486826699043</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,25 +1154,25 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.139827</v>
+        <v>0.105826</v>
       </c>
       <c r="H12">
-        <v>0.419481</v>
+        <v>0.317478</v>
       </c>
       <c r="I12">
-        <v>0.07046203520036229</v>
+        <v>0.05012823454123645</v>
       </c>
       <c r="J12">
-        <v>0.07046203520036229</v>
+        <v>0.05012823454123645</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.840209</v>
+        <v>0.4040993333333333</v>
       </c>
       <c r="N12">
-        <v>5.520626999999999</v>
+        <v>1.212298</v>
       </c>
       <c r="O12">
-        <v>0.7616851584290758</v>
+        <v>0.1080113302049822</v>
       </c>
       <c r="P12">
-        <v>0.7616851584290758</v>
+        <v>0.1080113302049822</v>
       </c>
       <c r="Q12">
-        <v>0.257310903843</v>
+        <v>0.04276421604933333</v>
       </c>
       <c r="R12">
-        <v>2.315798134587</v>
+        <v>0.3848779444439999</v>
       </c>
       <c r="S12">
-        <v>0.05366988644482307</v>
+        <v>0.005414417293626283</v>
       </c>
       <c r="T12">
-        <v>0.05366988644482307</v>
+        <v>0.005414417293626283</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,427 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.139827</v>
+        <v>0.105826</v>
       </c>
       <c r="H13">
-        <v>0.419481</v>
+        <v>0.317478</v>
       </c>
       <c r="I13">
-        <v>0.07046203520036229</v>
+        <v>0.05012823454123645</v>
       </c>
       <c r="J13">
-        <v>0.07046203520036229</v>
+        <v>0.05012823454123645</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.31965</v>
+        <v>3.337168666666667</v>
       </c>
       <c r="N13">
-        <v>0.9589500000000001</v>
+        <v>10.011506</v>
       </c>
       <c r="O13">
-        <v>0.132307069953388</v>
+        <v>0.8919886697950178</v>
       </c>
       <c r="P13">
-        <v>0.132307069953388</v>
+        <v>0.8919886697950178</v>
       </c>
       <c r="Q13">
-        <v>0.04469570055000001</v>
+        <v>0.3531592113186667</v>
       </c>
       <c r="R13">
-        <v>0.40226130495</v>
+        <v>3.178432901868</v>
       </c>
       <c r="S13">
-        <v>0.00932262542031242</v>
+        <v>0.04471381724761016</v>
       </c>
       <c r="T13">
-        <v>0.00932262542031242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.153603</v>
-      </c>
-      <c r="H14">
-        <v>0.460809</v>
-      </c>
-      <c r="I14">
-        <v>0.07740407784534639</v>
-      </c>
-      <c r="J14">
-        <v>0.07740407784534638</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.2561116666666667</v>
-      </c>
-      <c r="N14">
-        <v>0.768335</v>
-      </c>
-      <c r="O14">
-        <v>0.1060077716175362</v>
-      </c>
-      <c r="P14">
-        <v>0.1060077716175362</v>
-      </c>
-      <c r="Q14">
-        <v>0.03933952033500001</v>
-      </c>
-      <c r="R14">
-        <v>0.354055683015</v>
-      </c>
-      <c r="S14">
-        <v>0.008205433806495474</v>
-      </c>
-      <c r="T14">
-        <v>0.008205433806495473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.153603</v>
-      </c>
-      <c r="H15">
-        <v>0.460809</v>
-      </c>
-      <c r="I15">
-        <v>0.07740407784534639</v>
-      </c>
-      <c r="J15">
-        <v>0.07740407784534638</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.840209</v>
-      </c>
-      <c r="N15">
-        <v>5.520626999999999</v>
-      </c>
-      <c r="O15">
-        <v>0.7616851584290758</v>
-      </c>
-      <c r="P15">
-        <v>0.7616851584290758</v>
-      </c>
-      <c r="Q15">
-        <v>0.282661623027</v>
-      </c>
-      <c r="R15">
-        <v>2.543954607243</v>
-      </c>
-      <c r="S15">
-        <v>0.05895753729668918</v>
-      </c>
-      <c r="T15">
-        <v>0.05895753729668917</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.153603</v>
-      </c>
-      <c r="H16">
-        <v>0.460809</v>
-      </c>
-      <c r="I16">
-        <v>0.07740407784534639</v>
-      </c>
-      <c r="J16">
-        <v>0.07740407784534638</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.31965</v>
-      </c>
-      <c r="N16">
-        <v>0.9589500000000001</v>
-      </c>
-      <c r="O16">
-        <v>0.132307069953388</v>
-      </c>
-      <c r="P16">
-        <v>0.132307069953388</v>
-      </c>
-      <c r="Q16">
-        <v>0.04909919895000001</v>
-      </c>
-      <c r="R16">
-        <v>0.4418927905500001</v>
-      </c>
-      <c r="S16">
-        <v>0.01024110674216173</v>
-      </c>
-      <c r="T16">
-        <v>0.01024110674216173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.4483066666666667</v>
-      </c>
-      <c r="H17">
-        <v>1.34492</v>
-      </c>
-      <c r="I17">
-        <v>0.2259120207629696</v>
-      </c>
-      <c r="J17">
-        <v>0.2259120207629696</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.2561116666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.768335</v>
-      </c>
-      <c r="O17">
-        <v>0.1060077716175362</v>
-      </c>
-      <c r="P17">
-        <v>0.1060077716175362</v>
-      </c>
-      <c r="Q17">
-        <v>0.1148165675777778</v>
-      </c>
-      <c r="R17">
-        <v>1.0333491082</v>
-      </c>
-      <c r="S17">
-        <v>0.02394842990269698</v>
-      </c>
-      <c r="T17">
-        <v>0.02394842990269698</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>0.4483066666666667</v>
-      </c>
-      <c r="H18">
-        <v>1.34492</v>
-      </c>
-      <c r="I18">
-        <v>0.2259120207629696</v>
-      </c>
-      <c r="J18">
-        <v>0.2259120207629696</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1.840209</v>
-      </c>
-      <c r="N18">
-        <v>5.520626999999999</v>
-      </c>
-      <c r="O18">
-        <v>0.7616851584290758</v>
-      </c>
-      <c r="P18">
-        <v>0.7616851584290758</v>
-      </c>
-      <c r="Q18">
-        <v>0.8249779627599999</v>
-      </c>
-      <c r="R18">
-        <v>7.424801664839999</v>
-      </c>
-      <c r="S18">
-        <v>0.1720738333258752</v>
-      </c>
-      <c r="T18">
-        <v>0.1720738333258752</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>0.4483066666666667</v>
-      </c>
-      <c r="H19">
-        <v>1.34492</v>
-      </c>
-      <c r="I19">
-        <v>0.2259120207629696</v>
-      </c>
-      <c r="J19">
-        <v>0.2259120207629696</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M19">
-        <v>0.31965</v>
-      </c>
-      <c r="N19">
-        <v>0.9589500000000001</v>
-      </c>
-      <c r="O19">
-        <v>0.132307069953388</v>
-      </c>
-      <c r="P19">
-        <v>0.132307069953388</v>
-      </c>
-      <c r="Q19">
-        <v>0.143301226</v>
-      </c>
-      <c r="R19">
-        <v>1.289711034</v>
-      </c>
-      <c r="S19">
-        <v>0.02988975753439746</v>
-      </c>
-      <c r="T19">
-        <v>0.02988975753439746</v>
+        <v>0.04471381724761016</v>
       </c>
     </row>
   </sheetData>
